--- a/Solution/Clean_Data_and_Report.xlsx
+++ b/Solution/Clean_Data_and_Report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Data Analytics\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Data Analytics\Documents\GitHub\sales-data-analysis\Solution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDFEB0A4-713D-4567-BC35-7CE055DC0463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56001C4-B84B-4DE8-B0D1-0D2EEF2531CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="3" xr2:uid="{FBEE0547-C1DD-4B7A-A3EB-2BA1446463BC}"/>
   </bookViews>
@@ -751,61 +751,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Data Cleaning (Removing Duplicates IDs):</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">The "Remove duplicate" function  in the Data tools group of the Data Ribbon was used to remove duplicate IDs.  A cell within the data range was selected and the "Remove duplicate" function was clicked. All columns were deselected leaving on "ID"  on the "Remove Duplicates", Dialogue box.  3 duplicates were found and removed. There was remaining </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>29 rows and 9 Colums</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Data Cleaning (Drop Rows where Price Per Unit is "inf"): </t>
     </r>
     <r>
@@ -960,7 +905,26 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Data Insight: </t>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Data Cleaning (Removing Duplicates IDs):</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
     </r>
     <r>
       <rPr>
@@ -970,7 +934,62 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Clearly the South Region is doing very well with sales. The accounts for 39% of Total Revenue.  While the North did poorly both in Quantiy of items sold and Total value. However, the East and West had equal  Quantiy of saless.  Howerver, the East Region Raked in 8% more Revenue than the West, meaning the East sold more "Permium" items than the West. The Management conider studying the South Region, to possibly replicates its model accorss regions. </t>
+      <t xml:space="preserve">The "Remove duplicate" function  in the Data tools group of the Data Ribbon was used to remove duplicate IDs.  A cell within the data range was selected and the "Remove duplicate" function was clicked. All columns were deselected leaving on "ID"  on the "Remove Duplicates", Dialogue box.  3 duplicates were found and removed. There was remaining </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>28 rows and 9 Colums</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Data Insight:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The South Regionhad the most sales, accounting for 39% of Total Revenue. The North did poorly both in Quantiy of items sold and Total value. The East and West had equal  number of sales.  Howerver, the East Region Raked in 8% more Revenue than the West. This indicates that the East sold more "Permium" items than the West. </t>
     </r>
   </si>
 </sst>
@@ -1197,7 +1216,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1318,17 +1337,14 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1336,18 +1352,18 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -15637,8 +15653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA685C1C-6A3D-431E-99F4-4D71B145EE13}">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B41" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54:I57"/>
+    <sheetView tabSelected="1" topLeftCell="B39" workbookViewId="0">
+      <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -16088,7 +16104,7 @@
       <c r="D15" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="64" t="s">
+      <c r="E15" s="55" t="s">
         <v>27</v>
       </c>
       <c r="F15" s="10" t="s">
@@ -16270,12 +16286,12 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.6">
-      <c r="D26" s="58" t="s">
+      <c r="D26" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
     </row>
     <row r="27" spans="1:9" ht="15.6">
       <c r="D27" s="50" t="s">
@@ -16291,7 +16307,7 @@
         <v>160</v>
       </c>
       <c r="H27" s="51" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.6">
@@ -16307,7 +16323,7 @@
       <c r="G28" s="53">
         <v>4400</v>
       </c>
-      <c r="H28" s="63">
+      <c r="H28" s="54">
         <f>G28/G32</f>
         <v>0.21153897004560107</v>
       </c>
@@ -16325,7 +16341,7 @@
       <c r="G29" s="53">
         <v>5950.2</v>
       </c>
-      <c r="H29" s="63">
+      <c r="H29" s="54">
         <f>G29/G32</f>
         <v>0.28606799535575805</v>
       </c>
@@ -16343,7 +16359,7 @@
       <c r="G30" s="53">
         <v>2399.85</v>
       </c>
-      <c r="H30" s="63">
+      <c r="H30" s="54">
         <f>G30/G32</f>
         <v>0.11537768119634902</v>
       </c>
@@ -16361,48 +16377,48 @@
       <c r="G31" s="53">
         <v>8049.9</v>
       </c>
-      <c r="H31" s="63">
+      <c r="H31" s="54">
         <f>G31/G32</f>
         <v>0.38701535340229182</v>
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="D32" s="57" t="s">
+      <c r="D32" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
       <c r="G32" s="49">
         <f>SUM(G28:G31)</f>
         <v>20799.95</v>
       </c>
-      <c r="H32" s="65">
+      <c r="H32" s="56">
         <f>G32/G32</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="51" customHeight="1">
-      <c r="B34" s="59" t="s">
+      <c r="B34" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
       <c r="F34" s="14"/>
     </row>
-    <row r="35" spans="2:10" ht="31.8" customHeight="1">
+    <row r="35" spans="2:10" ht="52.2" customHeight="1">
       <c r="B35">
         <v>1</v>
       </c>
-      <c r="C35" s="55" t="s">
-        <v>176</v>
-      </c>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="55"/>
+      <c r="C35" s="58" t="s">
+        <v>175</v>
+      </c>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
     </row>
     <row r="36" spans="2:10">
       <c r="C36" s="48"/>
@@ -16418,8 +16434,8 @@
       <c r="B37">
         <v>2</v>
       </c>
-      <c r="C37" s="60" t="s">
-        <v>170</v>
+      <c r="C37" s="57" t="s">
+        <v>177</v>
       </c>
       <c r="D37" s="61"/>
       <c r="E37" s="61"/>
@@ -16428,7 +16444,7 @@
       <c r="H37" s="61"/>
       <c r="I37" s="61"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" ht="24.6" customHeight="1">
       <c r="C38" s="61"/>
       <c r="D38" s="61"/>
       <c r="E38" s="61"/>
@@ -16438,168 +16454,168 @@
       <c r="I38" s="61"/>
     </row>
     <row r="39" spans="2:10" ht="15.6" customHeight="1"/>
-    <row r="40" spans="2:10" ht="54" customHeight="1">
-      <c r="C40" s="54" t="s">
+    <row r="40" spans="2:10" ht="56.4" customHeight="1">
+      <c r="C40" s="62" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40" s="63"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="63"/>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="C41" s="63"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="C43" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="62"/>
-    </row>
-    <row r="41" spans="2:10">
-      <c r="C41" s="62"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="62"/>
-    </row>
-    <row r="43" spans="2:10">
-      <c r="C43" s="54" t="s">
-        <v>172</v>
-      </c>
-      <c r="D43" s="55"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="55"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
     </row>
     <row r="44" spans="2:10">
-      <c r="C44" s="55"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="55"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
     </row>
     <row r="45" spans="2:10">
-      <c r="C45" s="55"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="55"/>
-      <c r="G45" s="55"/>
-      <c r="H45" s="55"/>
-      <c r="I45" s="55"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
     </row>
     <row r="46" spans="2:10" ht="49.2" customHeight="1"/>
     <row r="47" spans="2:10" ht="15.6">
-      <c r="C47" s="56" t="s">
-        <v>174</v>
-      </c>
-      <c r="D47" s="56"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="56"/>
-      <c r="H47" s="56"/>
-      <c r="I47" s="56"/>
+      <c r="C47" s="62" t="s">
+        <v>173</v>
+      </c>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="62"/>
+      <c r="I47" s="62"/>
     </row>
     <row r="49" spans="2:9">
       <c r="B49">
         <v>3</v>
       </c>
-      <c r="C49" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="D49" s="55"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="55"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="55"/>
+      <c r="C49" s="62" t="s">
+        <v>172</v>
+      </c>
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="58"/>
+      <c r="I49" s="58"/>
     </row>
     <row r="50" spans="2:9">
-      <c r="C50" s="55"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="55"/>
-      <c r="F50" s="55"/>
-      <c r="G50" s="55"/>
-      <c r="H50" s="55"/>
-      <c r="I50" s="55"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="58"/>
+      <c r="I50" s="58"/>
     </row>
     <row r="51" spans="2:9" ht="10.8" customHeight="1">
-      <c r="C51" s="55"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="55"/>
-      <c r="G51" s="55"/>
-      <c r="H51" s="55"/>
-      <c r="I51" s="55"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="58"/>
+      <c r="H51" s="58"/>
+      <c r="I51" s="58"/>
     </row>
     <row r="52" spans="2:9">
-      <c r="C52" s="55"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="55"/>
-      <c r="I52" s="55"/>
+      <c r="C52" s="58"/>
+      <c r="D52" s="58"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="58"/>
+      <c r="G52" s="58"/>
+      <c r="H52" s="58"/>
+      <c r="I52" s="58"/>
     </row>
     <row r="54" spans="2:9" ht="34.200000000000003" customHeight="1">
       <c r="B54">
         <v>4</v>
       </c>
-      <c r="C54" s="55" t="s">
-        <v>175</v>
-      </c>
-      <c r="D54" s="55"/>
-      <c r="E54" s="55"/>
-      <c r="F54" s="55"/>
-      <c r="G54" s="55"/>
-      <c r="H54" s="55"/>
-      <c r="I54" s="55"/>
+      <c r="C54" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="D54" s="58"/>
+      <c r="E54" s="58"/>
+      <c r="F54" s="58"/>
+      <c r="G54" s="58"/>
+      <c r="H54" s="58"/>
+      <c r="I54" s="58"/>
     </row>
     <row r="55" spans="2:9" ht="14.4" hidden="1" customHeight="1">
-      <c r="C55" s="55"/>
-      <c r="D55" s="55"/>
-      <c r="E55" s="55"/>
-      <c r="F55" s="55"/>
-      <c r="G55" s="55"/>
-      <c r="H55" s="55"/>
-      <c r="I55" s="55"/>
+      <c r="C55" s="58"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="58"/>
+      <c r="F55" s="58"/>
+      <c r="G55" s="58"/>
+      <c r="H55" s="58"/>
+      <c r="I55" s="58"/>
     </row>
     <row r="56" spans="2:9" ht="3.6" customHeight="1">
-      <c r="C56" s="55"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="55"/>
-      <c r="I56" s="55"/>
-    </row>
-    <row r="57" spans="2:9">
-      <c r="C57" s="55"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="55"/>
-      <c r="H57" s="55"/>
-      <c r="I57" s="55"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="58"/>
+      <c r="G56" s="58"/>
+      <c r="H56" s="58"/>
+      <c r="I56" s="58"/>
+    </row>
+    <row r="57" spans="2:9" ht="13.8" customHeight="1">
+      <c r="C57" s="58"/>
+      <c r="D57" s="58"/>
+      <c r="E57" s="58"/>
+      <c r="F57" s="58"/>
+      <c r="G57" s="58"/>
+      <c r="H57" s="58"/>
+      <c r="I57" s="58"/>
     </row>
     <row r="61" spans="2:9">
-      <c r="C61" s="60" t="s">
+      <c r="C61" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="D61" s="55"/>
-      <c r="E61" s="55"/>
-      <c r="F61" s="55"/>
-      <c r="G61" s="55"/>
-      <c r="H61" s="55"/>
-      <c r="I61" s="55"/>
-    </row>
-    <row r="62" spans="2:9" ht="42.6" customHeight="1">
-      <c r="C62" s="55"/>
-      <c r="D62" s="55"/>
-      <c r="E62" s="55"/>
-      <c r="F62" s="55"/>
-      <c r="G62" s="55"/>
-      <c r="H62" s="55"/>
-      <c r="I62" s="55"/>
+      <c r="D61" s="58"/>
+      <c r="E61" s="58"/>
+      <c r="F61" s="58"/>
+      <c r="G61" s="58"/>
+      <c r="H61" s="58"/>
+      <c r="I61" s="58"/>
+    </row>
+    <row r="62" spans="2:9" ht="43.2" customHeight="1">
+      <c r="C62" s="58"/>
+      <c r="D62" s="58"/>
+      <c r="E62" s="58"/>
+      <c r="F62" s="58"/>
+      <c r="G62" s="58"/>
+      <c r="H62" s="58"/>
+      <c r="I62" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -20191,23 +20207,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="04ec5a1a-e29c-407e-9660-cb4eaaff03ab" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010076A9E49C56486844AEA3493470A3BA7F" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e113dd8c6d9d6d8e50c33cd355eeb814">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="04ec5a1a-e29c-407e-9660-cb4eaaff03ab" xmlns:ns4="98587d8b-32ff-4694-8d3a-6f66eb643b0d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="654ccc4b072c8ba42f6f064ab7b3a12b" ns3:_="" ns4:_="">
     <xsd:import namespace="04ec5a1a-e29c-407e-9660-cb4eaaff03ab"/>
@@ -20460,6 +20459,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="04ec5a1a-e29c-407e-9660-cb4eaaff03ab" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84B241E6-AE4C-4EA5-96CC-6E77ABF1BB4A}">
   <ds:schemaRefs>
@@ -20469,24 +20485,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C00B319-165B-4AE8-A6AE-EED707A1FDFE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="04ec5a1a-e29c-407e-9660-cb4eaaff03ab"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76F14EA0-1B09-4BA6-A1E0-FED8521C2BE1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8184B4C1-4F0A-455C-A4C4-43B4C034F928}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20503,4 +20501,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76F14EA0-1B09-4BA6-A1E0-FED8521C2BE1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C00B319-165B-4AE8-A6AE-EED707A1FDFE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="04ec5a1a-e29c-407e-9660-cb4eaaff03ab"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>